--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Register User</t>
   </si>
@@ -44,21 +44,6 @@
     <t>email::samay5@email.com</t>
   </si>
   <si>
-    <t>Create User</t>
-  </si>
-  <si>
-    <t>link:xyz</t>
-  </si>
-  <si>
-    <t>bdc</t>
-  </si>
-  <si>
-    <t>param3</t>
-  </si>
-  <si>
-    <t>param4</t>
-  </si>
-  <si>
     <t>Param3</t>
   </si>
   <si>
@@ -102,6 +87,15 @@
   </si>
   <si>
     <t>Param17</t>
+  </si>
+  <si>
+    <t>User creation Test</t>
+  </si>
+  <si>
+    <t>username::samaytestuser</t>
+  </si>
+  <si>
+    <t>password::testpass</t>
   </si>
 </sst>
 </file>
@@ -137,8 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,101 +419,97 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>